--- a/biology/Zoologie/Gecarcoidea_natalis/Gecarcoidea_natalis.xlsx
+++ b/biology/Zoologie/Gecarcoidea_natalis/Gecarcoidea_natalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gecarcoidea natalis, le crabe rouge de l'île Christmas (petit crabe Noël), est une espèce de crabe terrestre qui est endémique à l'île Christmas et aux îles Cocos dans l'océan Indien, ainsi que dans les îles du Vanuatu. 
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,11 +555,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alimentation
-Le crabe rouge de l'île Christmas est un omnivore charognard, il se nourrit principalement de feuilles mortes, de fleurs, de fruits, de jeunes plants, et aussi de détritus humains ou de cadavres d'animaux, ou de cadavres de crabes rouges (cannibalisme). Le crabe rouge n'a pas de concurrent pour la nourriture car il domine par le nombre le sol de la forêt.
-Croissance
-Reproduction
-Migrations et génétique</t>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crabe rouge de l'île Christmas est un omnivore charognard, il se nourrit principalement de feuilles mortes, de fleurs, de fruits, de jeunes plants, et aussi de détritus humains ou de cadavres d'animaux, ou de cadavres de crabes rouges (cannibalisme). Le crabe rouge n'a pas de concurrent pour la nourriture car il domine par le nombre le sol de la forêt.
+</t>
         </is>
       </c>
     </row>
@@ -573,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -606,7 +625,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(fr + en) Référence EOL : Gecarcoidea natalis</t>
         </is>
